--- a/regionseng/5/transport and communication/transport and storage.xlsx
+++ b/regionseng/5/transport and communication/transport and storage.xlsx
@@ -67,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -203,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,6 +285,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -583,7 +593,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:P1"/>
@@ -600,7 +610,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>15</v>
       </c>
@@ -619,8 +629,24 @@
       <c r="N1" s="32"/>
       <c r="O1" s="32"/>
       <c r="P1" s="32"/>
-    </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
+    </row>
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="15">
         <v>2006</v>
@@ -667,8 +693,14 @@
       <c r="P3" s="31">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="31">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="31">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -717,8 +749,14 @@
       <c r="P4" s="20">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="20">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="R4" s="20">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>8</v>
       </c>
@@ -767,8 +805,14 @@
       <c r="P5" s="20">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="20">
+        <v>20.6</v>
+      </c>
+      <c r="R5" s="20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>2</v>
       </c>
@@ -817,8 +861,14 @@
       <c r="P6" s="25">
         <v>630</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="25">
+        <v>830</v>
+      </c>
+      <c r="R6" s="25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>3</v>
       </c>
@@ -867,8 +917,14 @@
       <c r="P7" s="25">
         <v>472</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="25">
+        <v>487</v>
+      </c>
+      <c r="R7" s="25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>4</v>
       </c>
@@ -917,8 +973,14 @@
       <c r="P8" s="20">
         <v>233</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="20">
+        <v>351.9</v>
+      </c>
+      <c r="R8" s="20">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>9</v>
       </c>
@@ -967,8 +1029,14 @@
       <c r="P9" s="20">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="20">
+        <v>11.1</v>
+      </c>
+      <c r="R9" s="20">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>10</v>
       </c>
@@ -1017,8 +1085,14 @@
       <c r="P10" s="20">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="20">
+        <v>2.1</v>
+      </c>
+      <c r="R10" s="20">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>11</v>
       </c>
@@ -1067,8 +1141,14 @@
       <c r="P11" s="20">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="20">
+        <v>9.6</v>
+      </c>
+      <c r="R11" s="20">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>12</v>
       </c>
@@ -1117,8 +1197,14 @@
       <c r="P12" s="20">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="20">
+        <v>0.3</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>13</v>
       </c>
@@ -1167,8 +1253,14 @@
       <c r="P13" s="20">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="20">
+        <v>11.2</v>
+      </c>
+      <c r="R13" s="20">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
         <v>14</v>
       </c>
@@ -1217,8 +1309,14 @@
       <c r="P14" s="20">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1315,8 +1413,9 @@
       <c r="C32" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:P1"/>
+    <mergeCell ref="Q1:AF1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/5/transport and communication/transport and storage.xlsx
+++ b/regionseng/5/transport and communication/transport and storage.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04BADA-510B-4786-867A-BAD72492BBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="22215" windowHeight="8010"/>
+    <workbookView xWindow="14625" yWindow="2565" windowWidth="14265" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -210,23 +211,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,10 +239,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -280,7 +272,7 @@
     <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -382,6 +374,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -417,6 +426,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -592,11 +618,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4:S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,708 +637,744 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="33"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="30"/>
     </row>
     <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13">
         <v>2006</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <v>2007</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <v>2008</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <v>2009</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>2010</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>2011</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>2012</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="14">
         <v>2013</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <v>2014</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="15">
         <v>2015</v>
       </c>
-      <c r="L3" s="18">
+      <c r="L3" s="14">
         <v>2016</v>
       </c>
-      <c r="M3" s="18">
+      <c r="M3" s="14">
         <v>2017</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="16">
         <v>2018</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="16">
         <v>2019</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="28">
         <v>2020</v>
       </c>
-      <c r="Q3" s="31">
+      <c r="Q3" s="28">
         <v>2021</v>
       </c>
-      <c r="R3" s="31">
+      <c r="R3" s="28">
         <v>2022</v>
       </c>
+      <c r="S3" s="28">
+        <v>2023</v>
+      </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="20">
+      <c r="B4" s="17">
         <v>0.83567999999999998</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="17">
         <v>0.81923999999999997</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="17">
         <v>1.1605399999999999</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="17">
         <v>1.88774</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>0.97124999999999995</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="17">
         <v>1.8818900000000001</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="18">
         <v>3.3</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="18">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="19">
         <v>4.2359</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="19">
         <v>7.1210000000000004</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>12.3</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="17">
         <v>24.178280000000001</v>
       </c>
-      <c r="N4" s="20">
+      <c r="N4" s="17">
         <v>8.7369500000000002</v>
       </c>
-      <c r="O4" s="14">
+      <c r="O4" s="12">
         <v>11.8</v>
       </c>
-      <c r="P4" s="20">
+      <c r="P4" s="17">
         <v>13</v>
       </c>
-      <c r="Q4" s="20">
+      <c r="Q4" s="17">
         <v>18.899999999999999</v>
       </c>
-      <c r="R4" s="20">
+      <c r="R4" s="17">
         <v>29.1</v>
       </c>
+      <c r="S4" s="17">
+        <v>48.8</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="17">
         <v>1.0356799999999999</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="17">
         <v>0.99329000000000001</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="17">
         <v>1.1605399999999999</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="17">
         <v>0.27921000000000001</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>0.97124999999999995</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="17">
         <v>1.8818900000000001</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="21">
         <v>4.5</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="21">
         <v>6.4</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>6.5</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>7.7</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>15.5</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="17">
         <v>25.540410000000001</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="17">
         <v>11.33746</v>
       </c>
-      <c r="O5" s="14">
+      <c r="O5" s="12">
         <v>13.2</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="17">
         <v>14.8</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="17">
         <v>20.6</v>
       </c>
-      <c r="R5" s="20">
+      <c r="R5" s="17">
         <v>32</v>
       </c>
+      <c r="S5" s="17">
+        <v>49.7</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>357</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>367.92858000000001</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="22">
         <v>457.16665999999998</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>81</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="22">
         <v>226</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="22">
         <v>448.67930999999999</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="18">
         <v>267</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <v>310</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>276</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>417</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>505</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="22">
         <v>514.68724999999995</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <v>584.98069999999996</v>
       </c>
-      <c r="O6" s="14">
+      <c r="O6" s="12">
         <v>786</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="22">
         <v>630</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="22">
         <v>830</v>
       </c>
-      <c r="R6" s="25">
+      <c r="R6" s="22">
         <v>841</v>
       </c>
+      <c r="S6" s="22">
+        <v>811</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>343</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="22">
         <v>349.5</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="22">
         <v>454.16665999999998</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="22">
         <v>80</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="22">
         <v>210.5</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="22">
         <v>413.17135000000002</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <v>259</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <v>287</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <v>258</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>383</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>376</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="22">
         <v>426.94632000000001</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <v>507.66307999999998</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="12">
         <v>556</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="22">
         <v>472</v>
       </c>
-      <c r="Q7" s="25">
+      <c r="Q7" s="22">
         <v>487</v>
       </c>
-      <c r="R7" s="25">
+      <c r="R7" s="22">
         <v>564</v>
       </c>
+      <c r="S7" s="22">
+        <v>668</v>
+      </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="17">
         <v>58.714770999999999</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="17">
         <v>83.071769000000003</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="17">
         <v>70.044128999999998</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="17">
         <v>159.90312499999999</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>132.32877999999999</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="17">
         <v>234.475706</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="18">
         <v>408.1</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="18">
         <v>561.20000000000005</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="19">
         <v>541.29999999999995</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="19">
         <v>285.39999999999998</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>547.6</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="17">
         <v>607.84606099999996</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="17">
         <v>364.05945700000001</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="12">
         <v>390.4</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="17">
         <v>233</v>
       </c>
-      <c r="Q8" s="20">
+      <c r="Q8" s="17">
         <v>351.9</v>
       </c>
-      <c r="R8" s="20">
+      <c r="R8" s="17">
         <v>335</v>
       </c>
+      <c r="S8" s="17">
+        <v>670.4</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="17">
         <v>0.31051000000000001</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="17">
         <v>0.46572000000000002</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="17">
         <v>0.56960999999999995</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="17">
         <v>6.6540000000000002E-2</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>0.42153000000000002</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="17">
         <v>0.74441999999999997</v>
       </c>
-      <c r="H9" s="21">
+      <c r="H9" s="18">
         <v>1.9</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="18">
         <v>2.7</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="19">
         <v>2.9925999999999999</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="19">
         <v>2.8786999999999998</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>6.7</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="17">
         <v>14.16089</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="17">
         <v>5.6197400000000002</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="12">
         <v>5.0999999999999996</v>
       </c>
-      <c r="P9" s="20">
+      <c r="P9" s="17">
         <v>8</v>
       </c>
-      <c r="Q9" s="20">
+      <c r="Q9" s="17">
         <v>11.1</v>
       </c>
-      <c r="R9" s="20">
+      <c r="R9" s="17">
         <v>13.8</v>
       </c>
+      <c r="S9" s="17">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="17">
         <v>0.29281000000000001</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="17">
         <v>0.42101</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="17">
         <v>0.38174000000000002</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="17">
         <v>0.15351999999999999</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>0.33427000000000001</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="17">
         <v>1.16255</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="18">
         <v>1.3</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="21">
         <v>2</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="19">
         <v>1.675</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="19">
         <v>1.337</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>2.5</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="17">
         <v>3.1142099999999999</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="17">
         <v>2.2178300000000002</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="12">
         <v>2.6</v>
       </c>
-      <c r="P10" s="20">
+      <c r="P10" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q10" s="20">
+      <c r="Q10" s="17">
         <v>2.1</v>
       </c>
-      <c r="R10" s="20">
+      <c r="R10" s="17">
         <v>2.2999999999999998</v>
       </c>
+      <c r="S10" s="17">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="17">
         <v>0.72516000000000003</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="17">
         <v>0.52756000000000003</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="17">
         <v>0.59092999999999996</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="17">
         <v>0.21267</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="17">
         <v>0.54973000000000005</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="17">
         <v>1.13748</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="18">
         <v>2.6</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="18">
         <v>3.7</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="19">
         <v>3.5501999999999998</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="19">
         <v>4.8356000000000003</v>
       </c>
-      <c r="L11" s="22">
+      <c r="L11" s="19">
         <v>8.9</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="17">
         <v>11.37951</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="17">
         <v>5.7177100000000003</v>
       </c>
-      <c r="O11" s="14">
+      <c r="O11" s="12">
         <v>8.1</v>
       </c>
-      <c r="P11" s="20">
+      <c r="P11" s="17">
         <v>6.8</v>
       </c>
-      <c r="Q11" s="20">
+      <c r="Q11" s="17">
         <v>9.6</v>
       </c>
-      <c r="R11" s="20">
+      <c r="R11" s="17">
         <v>18.2</v>
       </c>
+      <c r="S11" s="17">
+        <v>35.6</v>
+      </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="17">
         <v>0</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="17">
         <v>4.3479999999999998E-2</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <v>2.2899999999999999E-3</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <v>9.7800000000000005E-3</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <v>9.5363900000000008</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <v>8.3970000000000003E-2</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="18">
         <v>0.1</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <v>8.9</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="19">
         <v>1.9260999999999999</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>3.1</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="17">
         <v>0.34794000000000003</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="17">
         <v>0.76319999999999999</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="12">
         <v>0.3</v>
       </c>
-      <c r="P12" s="20">
+      <c r="P12" s="17">
         <v>1.8</v>
       </c>
-      <c r="Q12" s="20">
+      <c r="Q12" s="17">
         <v>0.3</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="17">
         <v>0.1</v>
       </c>
+      <c r="S12" s="17">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="17">
         <v>0.44244</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="17">
         <v>0.56657999999999997</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="17">
         <v>1.6804600000000001</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="17">
         <v>0.42131000000000002</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="17">
         <v>0.85640000000000005</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="18">
         <v>1.9</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="18">
         <v>1.9</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="21">
         <v>3.1475</v>
       </c>
-      <c r="K13" s="24">
+      <c r="K13" s="21">
         <v>3.0799000000000003</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="18">
         <v>7.2</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="17">
         <v>14.05674</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="17">
         <v>5.5908499999999997</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="24">
         <v>5</v>
       </c>
-      <c r="P13" s="20">
+      <c r="P13" s="17">
         <v>7.9</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="17">
         <v>11.2</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="17">
         <v>13.6</v>
       </c>
+      <c r="S13" s="17">
+        <v>14.1</v>
+      </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="17">
         <v>0</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="17">
         <v>0</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="17">
         <v>1.6179699999999999</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="17">
         <v>0</v>
       </c>
-      <c r="G14" s="20">
+      <c r="G14" s="17">
         <v>0</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="21">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="19">
         <v>0.31569999999999998</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="30" t="s">
+      <c r="M14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="17">
         <v>2.4809999999999999E-2</v>
       </c>
-      <c r="O14" s="27">
+      <c r="O14" s="24">
         <v>0</v>
       </c>
-      <c r="P14" s="20">
+      <c r="P14" s="17">
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="17">
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="17">
+        <v>0</v>
+      </c>
+      <c r="S14" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1327,90 +1389,90 @@
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="9"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="11"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="12"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="12"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
